--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_26_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_26_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.0526113397546242, 1.7200269893576552]</t>
+          <t>[1.0445372485113724, 1.728101080600907]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.013262806992543e-10</v>
+        <v>1.955744455273134e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.013262806992543e-10</v>
+        <v>1.955744455273134e-10</v>
       </c>
       <c r="O2" t="n">
         <v>0.2956053147521933</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.01886842434588587, 0.5723422051585008]</t>
+          <t>[0.03144737390980801, 0.5597632555945786]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.03684682138367235</v>
+        <v>0.02912125385964925</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03684682138367235</v>
+        <v>0.02912125385964925</v>
       </c>
       <c r="S2" t="n">
         <v>0.01681393537504028</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.17685892537268888, 0.21048679612276944]</t>
+          <t>[-0.17688688174327027, 0.21051475249335083]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.8619765805533863</v>
+        <v>0.8619962945967941</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8619765805533863</v>
+        <v>0.8619962945967941</v>
       </c>
       <c r="W2" t="n">
         <v>21.18414414414448</v>
       </c>
       <c r="X2" t="n">
-        <v>20.20504504504536</v>
+        <v>20.24954954954987</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.16324324324359</v>
+        <v>22.11873873873909</v>
       </c>
     </row>
   </sheetData>
